--- a/CreateTeamusingTemplate/CreateTeam-Basic-Graph.xlsx
+++ b/CreateTeamusingTemplate/CreateTeam-Basic-Graph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAD3F3B-BB56-4085-A6B7-14B97261C99E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A283C8-6270-44F2-A7D9-34665AA50339}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="-15975" windowWidth="27975" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateTeam-Basic-Graph" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>GarretV@sharepointmvp.onmicrosoft.com#abrown@sharepointmvp.onmicrosoft.com</t>
-  </si>
-  <si>
     <t>Message</t>
   </si>
   <si>
@@ -79,16 +76,22 @@
     <t>Channel 1 Team Private#Channel2#Channel3</t>
   </si>
   <si>
-    <t>Owner</t>
+    <t>Primary Owner</t>
+  </si>
+  <si>
+    <t>SecondryOwners</t>
+  </si>
+  <si>
+    <t>TuesdayNight</t>
   </si>
   <si>
     <t>jerryyasir@sharepointmvp.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Monday Night1</t>
-  </si>
-  <si>
-    <t>Mondday1</t>
+    <t>GarthF@sharepointmvp.onmicrosoft.com#GarretV@sharepointmvp.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>abrown@sharepointmvp.onmicrosoft.com</t>
   </si>
 </sst>
 </file>
@@ -581,9 +584,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -644,9 +650,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TeamName"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="MailNickName"/>
@@ -655,8 +661,9 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DeleteExistingTeam"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Channels"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Owner" dataCellStyle="Hyperlink"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Members"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Primary Owner" dataCellStyle="Hyperlink"/>
+    <tableColumn id="13" xr3:uid="{539ACA68-B3FE-4CCD-9209-B6D8840785E2}" name="SecondryOwners" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Members" dataCellStyle="Hyperlink"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tabs"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Message"/>
   </tableColumns>
@@ -961,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +990,7 @@
     <col min="12" max="12" width="54.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,27 +1016,30 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>14</v>
+      <c r="M1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1041,27 +1051,30 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{BBDC0D3D-A8FF-4716-A395-0B59726563A6}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{8350171C-6577-4FDE-BA01-F6E38975E39A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
